--- a/identification_diagnosis_results_summary.xlsx
+++ b/identification_diagnosis_results_summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uc3m-my.sharepoint.com/personal/100461537_alumnos_uc3m_es/Documents/Series Temporales/Proyecto Final/Proyecto_Final_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD3B55E-4A11-4262-8A6A-2B93364FF8F1}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBDA930-ED1E-4EAC-B927-F8477527DBBD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_results" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -177,10 +178,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -208,124 +217,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -333,19 +252,122 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -495,36 +517,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4B6B424-A8CD-41D8-A4F9-0CF5B3DB26D5}" name="Table82" displayName="Table82" ref="A1:AD82" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:AD82" xr:uid="{A4B6B424-A8CD-41D8-A4F9-0CF5B3DB26D5}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{05C9B729-FFA0-4297-B519-68E859710F79}" name="time_series" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{4BA16627-5F1F-4106-8936-054672457545}" name="ARIMA" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{F29699E4-7CBD-40C1-B20F-747C974F88BC}" name="AICc" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{4A697E85-4F3C-469F-991E-559FC78A8E04}" name="BIC" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{4A22E532-9902-49F5-BFE4-9C688BE8BEA0}" name="AR1" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{5EB21353-4FA3-4707-AEC3-9FAFC9173E43}" name="AR1_H0_inf" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{CE16192C-B754-4954-82F7-F608BE8BF31C}" name="AR1_H0_sup" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{52D7545A-2ED1-4F3E-A8B2-BAC2C3CC06B1}" name="AR1_H0" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{A9D03BDF-20E8-4AE2-ABDA-97CBAC2102DD}" name="AR2" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{89857B2F-46FE-4C4D-98CA-FEA6E0FF77FE}" name="AR2_H0_inf" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{37A2E07E-F82F-4126-8044-C7C03011A52E}" name="AR2_H0_sup" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{3CD90829-CCEC-4D1E-8495-2E039192858B}" name="AR2_H0" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{62A710DC-5AC6-4803-A181-7D0A178CA8CA}" name="MA1" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{A6B8F1CF-0880-4B25-9942-4B36CEAA1C3D}" name="MA1_H0_inf" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{4DEA7CC8-DBD6-4613-B600-C8634CA81146}" name="MA1_H0_sup" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{5D6925F9-D9A8-45BE-8981-42834DE1B24E}" name="MA1_H0" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{05454CB7-7417-4030-AB7D-F39561FECFDF}" name="MA2" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{89A99D19-579D-4041-A829-F006884F1807}" name="MA2_H0_inf" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{87254913-6BF7-49E3-8F7D-D98F77A54F7C}" name="MA2_H0_sup" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{7BE27215-F55F-496D-9A34-9A7A54172097}" name="MA2_H0" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{FD99689C-10E0-4B52-9FDC-3BA8369F3A71}" name="drift" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{D7F5B0B7-CA6A-4B6B-9BCC-B90DC094881E}" name="drift_H0_inf" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{E024BADB-E74F-4FA5-AE0F-B63B722A0575}" name="drift_H0_sup" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{1FB68FBD-7D23-486E-ACF3-3603EEA9C431}" name="drift_H0" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{6804743A-52AF-40EA-AE3E-7548C3BC9485}" name="Normality_CVM_pvalue" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{4CE1DFAA-D7E9-4E79-AB4E-4C537458143E}" name="Normality_AD_pvalue" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{2EC59CA3-EB5C-49C6-8704-4557CF2B0720}" name="Normality_JB_pvalue" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{F91B426B-6DEF-4ACC-8EA2-D99E4E4B85AD}" name="Uncorrelation_LB" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{249E2158-774B-4414-B9FC-A59B13F9860C}" name="Homocedasticity_BP_B" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{5E853B61-DF37-476F-A990-2EE948F0DDB5}" name="Zero_mean" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{05C9B729-FFA0-4297-B519-68E859710F79}" name="time_series" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4BA16627-5F1F-4106-8936-054672457545}" name="ARIMA" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F29699E4-7CBD-40C1-B20F-747C974F88BC}" name="AICc" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4A697E85-4F3C-469F-991E-559FC78A8E04}" name="BIC" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{4A22E532-9902-49F5-BFE4-9C688BE8BEA0}" name="AR1" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{5EB21353-4FA3-4707-AEC3-9FAFC9173E43}" name="AR1_H0_inf" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{CE16192C-B754-4954-82F7-F608BE8BF31C}" name="AR1_H0_sup" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{52D7545A-2ED1-4F3E-A8B2-BAC2C3CC06B1}" name="AR1_H0" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{A9D03BDF-20E8-4AE2-ABDA-97CBAC2102DD}" name="AR2" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{89857B2F-46FE-4C4D-98CA-FEA6E0FF77FE}" name="AR2_H0_inf" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{37A2E07E-F82F-4126-8044-C7C03011A52E}" name="AR2_H0_sup" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{3CD90829-CCEC-4D1E-8495-2E039192858B}" name="AR2_H0" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{62A710DC-5AC6-4803-A181-7D0A178CA8CA}" name="MA1" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{A6B8F1CF-0880-4B25-9942-4B36CEAA1C3D}" name="MA1_H0_inf" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{4DEA7CC8-DBD6-4613-B600-C8634CA81146}" name="MA1_H0_sup" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{5D6925F9-D9A8-45BE-8981-42834DE1B24E}" name="MA1_H0" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{05454CB7-7417-4030-AB7D-F39561FECFDF}" name="MA2" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{89A99D19-579D-4041-A829-F006884F1807}" name="MA2_H0_inf" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{87254913-6BF7-49E3-8F7D-D98F77A54F7C}" name="MA2_H0_sup" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{7BE27215-F55F-496D-9A34-9A7A54172097}" name="MA2_H0" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{FD99689C-10E0-4B52-9FDC-3BA8369F3A71}" name="drift" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{D7F5B0B7-CA6A-4B6B-9BCC-B90DC094881E}" name="drift_H0_inf" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{E024BADB-E74F-4FA5-AE0F-B63B722A0575}" name="drift_H0_sup" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{1FB68FBD-7D23-486E-ACF3-3603EEA9C431}" name="drift_H0" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{6804743A-52AF-40EA-AE3E-7548C3BC9485}" name="Normality_CVM_pvalue" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{4CE1DFAA-D7E9-4E79-AB4E-4C537458143E}" name="Normality_AD_pvalue" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{2EC59CA3-EB5C-49C6-8704-4557CF2B0720}" name="Normality_JB_pvalue" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{F91B426B-6DEF-4ACC-8EA2-D99E4E4B85AD}" name="Uncorrelation_LB" dataDxfId="5"/>
+    <tableColumn id="29" xr3:uid="{249E2158-774B-4414-B9FC-A59B13F9860C}" name="Homocedasticity_BP_B" dataDxfId="4"/>
+    <tableColumn id="30" xr3:uid="{5E853B61-DF37-476F-A990-2EE948F0DDB5}" name="Zero_mean" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -811,21 +833,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE51252-DD80-4D80-B7B3-80B79707039A}">
   <dimension ref="A1:AD82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
@@ -847,13 +872,14 @@
     <col min="28" max="28" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -942,10 +968,10 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3">
@@ -1034,10 +1060,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="3">
@@ -1126,10 +1152,10 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="3">
@@ -1218,10 +1244,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="3">
@@ -1310,10 +1336,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="3">
@@ -1402,10 +1428,10 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="3">
@@ -1494,10 +1520,10 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="3">
@@ -1586,10 +1612,10 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="3">
@@ -1678,10 +1704,10 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="3">
@@ -1770,10 +1796,10 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3">
@@ -1862,10 +1888,10 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3">
@@ -1954,10 +1980,10 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="3">
@@ -2046,10 +2072,10 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3">
@@ -2138,10 +2164,10 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3">
@@ -2230,10 +2256,10 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="3">
@@ -2322,10 +2348,10 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3">
@@ -2414,10 +2440,10 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3">
@@ -2506,10 +2532,10 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="3">
@@ -2598,10 +2624,10 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="3">
@@ -2690,10 +2716,10 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3">
@@ -2782,10 +2808,10 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="3">
@@ -2874,10 +2900,10 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="3">
@@ -2966,10 +2992,10 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="3">
@@ -3058,10 +3084,10 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="3">
@@ -3150,10 +3176,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="3">
@@ -3242,10 +3268,10 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="3">
@@ -3334,10 +3360,10 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="3">
@@ -3426,10 +3452,10 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="3">
@@ -3518,10 +3544,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="3">
@@ -3610,10 +3636,10 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="3">
@@ -3702,10 +3728,10 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="3">
@@ -3794,10 +3820,10 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="3">
@@ -3886,10 +3912,10 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="3">
@@ -3978,10 +4004,10 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="3">
@@ -4070,10 +4096,10 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="3">
@@ -4162,10 +4188,10 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="3">
@@ -4254,10 +4280,10 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="3">
@@ -4346,10 +4372,10 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="3">
@@ -4438,10 +4464,10 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="3">
@@ -4530,10 +4556,10 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="3">
@@ -4622,10 +4648,10 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="3">
@@ -4714,10 +4740,10 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="3">
@@ -4806,10 +4832,10 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3">
@@ -4898,10 +4924,10 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="3">
@@ -4990,10 +5016,10 @@
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="3">
@@ -5082,10 +5108,10 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="3">
@@ -5174,10 +5200,10 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="3">
@@ -5266,10 +5292,10 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="3">
@@ -5358,10 +5384,10 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="3">
@@ -5450,10 +5476,10 @@
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="3">
@@ -5542,10 +5568,10 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C52" s="3">
@@ -5634,10 +5660,10 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="3">
@@ -5726,10 +5752,10 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C54" s="3">
@@ -5818,10 +5844,10 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="3">
@@ -5910,10 +5936,10 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="3">
@@ -6002,10 +6028,10 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="3">
@@ -6094,10 +6120,10 @@
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="3">
@@ -6186,10 +6212,10 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="3">
@@ -6278,10 +6304,10 @@
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="3">
@@ -6370,10 +6396,10 @@
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C61" s="3">
@@ -6462,10 +6488,10 @@
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C62" s="3">
@@ -6554,10 +6580,10 @@
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="3">
@@ -6646,10 +6672,10 @@
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="3">
@@ -6738,10 +6764,10 @@
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="3">
@@ -6830,10 +6856,10 @@
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C66" s="3">
@@ -6922,10 +6948,10 @@
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="3">
@@ -7014,10 +7040,10 @@
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C68" s="3">
@@ -7106,10 +7132,10 @@
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C69" s="3">
@@ -7198,10 +7224,10 @@
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="3">
@@ -7290,10 +7316,10 @@
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C71" s="3">
@@ -7382,10 +7408,10 @@
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="3">
@@ -7474,10 +7500,10 @@
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="3">
@@ -7566,10 +7592,10 @@
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="3">
@@ -7658,10 +7684,10 @@
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="3">
@@ -7750,10 +7776,10 @@
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="3">
@@ -7842,10 +7868,10 @@
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C77" s="3">
@@ -7934,10 +7960,10 @@
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="3">
@@ -8026,10 +8052,10 @@
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C79" s="3">
@@ -8118,10 +8144,10 @@
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C80" s="3">
@@ -8210,10 +8236,10 @@
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C81" s="3">
@@ -8302,10 +8328,10 @@
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C82" s="3">
@@ -8399,4 +8425,18 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282136F3-8152-4A3C-AF94-E04EB60B6E37}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/identification_diagnosis_results_summary.xlsx
+++ b/identification_diagnosis_results_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uc3m-my.sharepoint.com/personal/100461537_alumnos_uc3m_es/Documents/Series Temporales/Proyecto Final/Proyecto_Final_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBDA930-ED1E-4EAC-B927-F8477527DBBD}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2EDF5EB-2A0B-4A10-A52E-ACADFE27E319}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,11 +213,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,29 +315,65 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -364,6 +480,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -517,36 +651,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4B6B424-A8CD-41D8-A4F9-0CF5B3DB26D5}" name="Table82" displayName="Table82" ref="A1:AD82" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:AD82" xr:uid="{A4B6B424-A8CD-41D8-A4F9-0CF5B3DB26D5}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{05C9B729-FFA0-4297-B519-68E859710F79}" name="time_series" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4BA16627-5F1F-4106-8936-054672457545}" name="ARIMA" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F29699E4-7CBD-40C1-B20F-747C974F88BC}" name="AICc" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4A697E85-4F3C-469F-991E-559FC78A8E04}" name="BIC" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{4A22E532-9902-49F5-BFE4-9C688BE8BEA0}" name="AR1" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{5EB21353-4FA3-4707-AEC3-9FAFC9173E43}" name="AR1_H0_inf" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{CE16192C-B754-4954-82F7-F608BE8BF31C}" name="AR1_H0_sup" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{52D7545A-2ED1-4F3E-A8B2-BAC2C3CC06B1}" name="AR1_H0" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{A9D03BDF-20E8-4AE2-ABDA-97CBAC2102DD}" name="AR2" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{89857B2F-46FE-4C4D-98CA-FEA6E0FF77FE}" name="AR2_H0_inf" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{37A2E07E-F82F-4126-8044-C7C03011A52E}" name="AR2_H0_sup" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{3CD90829-CCEC-4D1E-8495-2E039192858B}" name="AR2_H0" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{62A710DC-5AC6-4803-A181-7D0A178CA8CA}" name="MA1" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{A6B8F1CF-0880-4B25-9942-4B36CEAA1C3D}" name="MA1_H0_inf" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{4DEA7CC8-DBD6-4613-B600-C8634CA81146}" name="MA1_H0_sup" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{5D6925F9-D9A8-45BE-8981-42834DE1B24E}" name="MA1_H0" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{05454CB7-7417-4030-AB7D-F39561FECFDF}" name="MA2" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{89A99D19-579D-4041-A829-F006884F1807}" name="MA2_H0_inf" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{87254913-6BF7-49E3-8F7D-D98F77A54F7C}" name="MA2_H0_sup" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{7BE27215-F55F-496D-9A34-9A7A54172097}" name="MA2_H0" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{FD99689C-10E0-4B52-9FDC-3BA8369F3A71}" name="drift" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{D7F5B0B7-CA6A-4B6B-9BCC-B90DC094881E}" name="drift_H0_inf" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{E024BADB-E74F-4FA5-AE0F-B63B722A0575}" name="drift_H0_sup" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{1FB68FBD-7D23-486E-ACF3-3603EEA9C431}" name="drift_H0" dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{6804743A-52AF-40EA-AE3E-7548C3BC9485}" name="Normality_CVM_pvalue" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{4CE1DFAA-D7E9-4E79-AB4E-4C537458143E}" name="Normality_AD_pvalue" dataDxfId="7"/>
-    <tableColumn id="27" xr3:uid="{2EC59CA3-EB5C-49C6-8704-4557CF2B0720}" name="Normality_JB_pvalue" dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{F91B426B-6DEF-4ACC-8EA2-D99E4E4B85AD}" name="Uncorrelation_LB" dataDxfId="5"/>
-    <tableColumn id="29" xr3:uid="{249E2158-774B-4414-B9FC-A59B13F9860C}" name="Homocedasticity_BP_B" dataDxfId="4"/>
-    <tableColumn id="30" xr3:uid="{5E853B61-DF37-476F-A990-2EE948F0DDB5}" name="Zero_mean" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{05C9B729-FFA0-4297-B519-68E859710F79}" name="time_series" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{4BA16627-5F1F-4106-8936-054672457545}" name="ARIMA" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{F29699E4-7CBD-40C1-B20F-747C974F88BC}" name="AICc" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{4A697E85-4F3C-469F-991E-559FC78A8E04}" name="BIC" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{4A22E532-9902-49F5-BFE4-9C688BE8BEA0}" name="AR1" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{5EB21353-4FA3-4707-AEC3-9FAFC9173E43}" name="AR1_H0_inf" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{CE16192C-B754-4954-82F7-F608BE8BF31C}" name="AR1_H0_sup" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{52D7545A-2ED1-4F3E-A8B2-BAC2C3CC06B1}" name="AR1_H0" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{A9D03BDF-20E8-4AE2-ABDA-97CBAC2102DD}" name="AR2" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{89857B2F-46FE-4C4D-98CA-FEA6E0FF77FE}" name="AR2_H0_inf" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{37A2E07E-F82F-4126-8044-C7C03011A52E}" name="AR2_H0_sup" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{3CD90829-CCEC-4D1E-8495-2E039192858B}" name="AR2_H0" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{62A710DC-5AC6-4803-A181-7D0A178CA8CA}" name="MA1" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{A6B8F1CF-0880-4B25-9942-4B36CEAA1C3D}" name="MA1_H0_inf" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{4DEA7CC8-DBD6-4613-B600-C8634CA81146}" name="MA1_H0_sup" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{5D6925F9-D9A8-45BE-8981-42834DE1B24E}" name="MA1_H0" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{05454CB7-7417-4030-AB7D-F39561FECFDF}" name="MA2" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{89A99D19-579D-4041-A829-F006884F1807}" name="MA2_H0_inf" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{87254913-6BF7-49E3-8F7D-D98F77A54F7C}" name="MA2_H0_sup" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{7BE27215-F55F-496D-9A34-9A7A54172097}" name="MA2_H0" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{FD99689C-10E0-4B52-9FDC-3BA8369F3A71}" name="drift" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{D7F5B0B7-CA6A-4B6B-9BCC-B90DC094881E}" name="drift_H0_inf" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{E024BADB-E74F-4FA5-AE0F-B63B722A0575}" name="drift_H0_sup" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{1FB68FBD-7D23-486E-ACF3-3603EEA9C431}" name="drift_H0" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{6804743A-52AF-40EA-AE3E-7548C3BC9485}" name="Normality_CVM_pvalue" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{4CE1DFAA-D7E9-4E79-AB4E-4C537458143E}" name="Normality_AD_pvalue" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{2EC59CA3-EB5C-49C6-8704-4557CF2B0720}" name="Normality_JB_pvalue" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{F91B426B-6DEF-4ACC-8EA2-D99E4E4B85AD}" name="Uncorrelation_LB" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{249E2158-774B-4414-B9FC-A59B13F9860C}" name="Homocedasticity_BP_B" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{5E853B61-DF37-476F-A990-2EE948F0DDB5}" name="Zero_mean" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,7 +971,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,7 +1009,7 @@
     <col min="33" max="33" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -968,830 +1102,830 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="10">
         <v>-380.57654497419099</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <v>-375.81242869493701</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U2" s="2">
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T2" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U2" s="11">
         <v>-1.13869960972187E-2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="11">
         <v>-1.7086105072724799E-2</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="11">
         <v>-6.0564351727982703E-3</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="2">
+      <c r="X2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="11">
         <v>0.49745623603445599</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="11">
         <v>0.44160978063738998</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="11">
         <v>5.3356746465560401E-8</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="11">
         <v>2.3905141146130598E-2</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="11">
         <v>7.5973552713356595E-5</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="12">
         <v>0.98930973691748103</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="15">
         <v>-381.08597004626898</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="15">
         <v>-374.01561108433799</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="16">
         <v>-0.17490971633748001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="16">
         <v>-0.385385000331807</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="16">
         <v>2.67455928782875E-2</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="H3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T3" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U3" s="16">
         <v>-1.14590518097911E-2</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="16">
         <v>-1.42477175945931E-2</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="16">
         <v>-4.7960000431443396E-3</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="2">
+      <c r="X3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="16">
         <v>0.560880026675315</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="16">
         <v>0.45484283385825303</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="16">
         <v>1.6245386567304E-5</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="16">
         <v>0.209777192333092</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="16">
         <v>0.989381350781953</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="17">
         <v>0.99583605405037301</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="18">
         <v>-381.445459758656</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="18">
         <v>-374.37510079672398</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" s="14">
         <v>-0.20213601390697999</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="14">
         <v>-0.47090108288124799</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="14">
         <v>-1.62172785603388E-3</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U4" s="2">
+      <c r="P4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U4" s="14">
         <v>-1.15145769338023E-2</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="14">
         <v>-1.5927185367778401E-2</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="14">
         <v>-7.4895119242341397E-3</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="2">
+      <c r="X4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="14">
         <v>0.57427296618655399</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="14">
         <v>0.46395524797549997</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="14">
         <v>1.5378047637826199E-4</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="14">
         <v>0.26378671157751299</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="14">
         <v>0.99783746978146903</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="19">
         <v>0.98218548696247698</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="15">
         <v>-379.50219949562802</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="15">
         <v>-370.178637471108</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="16">
         <v>0.23706570612337899</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="16">
         <v>-0.865427267082572</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="16">
         <v>0.860108703504608</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="H5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" s="16">
         <v>-0.43353518367384097</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="16">
         <v>-0.99999965088044696</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="16">
         <v>0.83751931611303199</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S5" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T5" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="P5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" s="16">
         <v>-1.16136220086354E-2</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="16">
         <v>-1.9163796186993799E-2</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="16">
         <v>-1.0949418288957199E-2</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" s="2">
+      <c r="X5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="16">
         <v>0.62169593276661705</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="16">
         <v>0.506155765032826</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="16">
         <v>5.6760963837965096E-4</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="16">
         <v>0.25722398225697002</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="16">
         <v>0.99720731884868796</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="17">
         <v>0.95596733097504405</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="15">
         <v>-379.46722399009502</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="15">
         <v>-370.14366196557501</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K6" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="16">
         <v>-0.19789392518568399</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="16">
         <v>-0.45100142059300702</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="16">
         <v>-2.23784298947709E-3</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="P6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="16">
         <v>-4.9044740547864001E-2</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="16">
         <v>-0.296013993760671</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="16">
         <v>0.18458329553306799</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="T6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="16">
         <v>-1.1587504136355301E-2</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="16">
         <v>-1.54039520825389E-2</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="16">
         <v>-7.3313345980665903E-3</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="2">
+      <c r="X6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="16">
         <v>0.61445273298289904</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="16">
         <v>0.49996577935310599</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="16">
         <v>6.6178599514865599E-4</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="16">
         <v>0.26129205552597601</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="16">
         <v>0.99832260894590097</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="17">
         <v>0.96286888921744695</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="15">
         <v>-378.82345853033502</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="15">
         <v>-367.30172204906802</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="16">
         <v>0.92207000178056298</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="16">
         <v>-0.96271332726015202</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="16">
         <v>0.89592602062761895</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K7" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="H7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="16">
         <v>-1.1559586470707599</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="16">
         <v>-1.2283485098653499</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="16">
         <v>0.82903806498162103</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="P7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="16">
         <v>0.15596726634890301</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="16">
         <v>-0.36340720089863798</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="16">
         <v>0.31212519853036302</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="2">
+      <c r="T7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="16">
         <v>-1.20105942368075E-2</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="16">
         <v>-0.15535270190916201</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="16">
         <v>-0.151826259536744</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y7" s="2">
+      <c r="X7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="16">
         <v>0.46164233348072697</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="16">
         <v>0.32291166443291902</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="16">
         <v>3.8585842789784502E-4</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="16">
         <v>0.23130250072925501</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="16">
         <v>0.99949468425086596</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="17">
         <v>0.58080936179173603</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="15">
         <v>-379.21277350749102</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="15">
         <v>-369.88921148297101</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="16">
         <v>-0.18736539766515301</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="16">
         <v>-0.40525544031944499</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="16">
         <v>2.2026046653970299E-2</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="16">
         <v>-6.2527107139275007E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="16">
         <v>-0.29463953155140998</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="16">
         <v>0.134442201632123</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="L8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U8" s="16">
         <v>-1.15116798048752E-2</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="16">
         <v>-1.3565318879505199E-2</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="16">
         <v>-4.7740330008638702E-3</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y8" s="2">
+      <c r="X8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="16">
         <v>0.57238594123362296</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="16">
         <v>0.46473540597351798</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="16">
         <v>2.8150669092952301E-4</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="16">
         <v>0.24737603355212101</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="16">
         <v>0.99918729532124795</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="17">
         <v>0.983359326467109</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="15">
         <v>-377.25076000530203</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <v>-365.72902352403401</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="16">
         <v>0.20574908093185601</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="16">
         <v>-1.16820521400988</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="16">
         <v>0.81369218157870704</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="16">
         <v>-1.1868498654064899E-2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="16">
         <v>-0.34578188698097101</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="16">
         <v>0.23821178946136701</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="16">
         <v>-0.40130237013113201</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="16">
         <v>-0.99999957270239104</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="16">
         <v>0.98958749571687599</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S9" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T9" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U9" s="2">
+      <c r="P9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S9" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T9" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U9" s="16">
         <v>-1.16112028729814E-2</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="16">
         <v>-1.8307809677653199E-2</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="16">
         <v>-1.0481065222480501E-2</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" s="2">
+      <c r="X9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="16">
         <v>0.62344883414129004</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="16">
         <v>0.50789872426147598</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="16">
         <v>6.6929128703241403E-4</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB9" s="16">
         <v>0.25475897328185299</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="16">
         <v>0.99689451870277401</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="17">
         <v>0.95649584659139497</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="22">
         <v>-381.24379780094898</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="22">
         <v>-367.58100516266899</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="23">
         <v>1.18584749065753</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="23">
         <v>-1.12125941871253</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="23">
         <v>1.2274425113192799</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="23">
         <v>-0.78430784501028805</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="23">
         <v>-0.98270296346979902</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="23">
         <v>0.69629899036735199</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="23">
         <v>-1.45530008442543</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="23">
         <v>-1.5645051898975499</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="23">
         <v>1.00389847678707</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="P10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="23">
         <v>0.99997651361078599</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="23">
         <v>-0.84957378444093401</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="23">
         <v>0.99999878973884104</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="T10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="23">
         <v>-1.1209421956107499E-2</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="23">
         <v>-2.3414524195345499E-2</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="23">
         <v>-1.44344827088167E-2</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y10" s="2">
+      <c r="X10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="23">
         <v>0.65442011049392201</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="23">
         <v>0.55780114704438799</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="23">
         <v>3.5818328645351701E-3</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="23">
         <v>0.223525187859893</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="23">
         <v>0.98782896769308404</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="24">
         <v>0.99614149675935204</v>
       </c>
     </row>
@@ -1986,88 +2120,88 @@
       <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>-384.38389819101502</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>-377.31353922908397</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="5">
         <v>-0.19204919848719901</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="5">
         <v>-0.434524428331444</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="5">
         <v>-2.61264820925021E-3</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="P13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U13" s="5">
         <v>-1.1879303440159901E-2</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="5">
         <v>-1.6012614218424901E-2</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="5">
         <v>-7.5083500517344904E-3</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y13" s="2">
+      <c r="X13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" s="5">
         <v>0.43925509444073302</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="5">
         <v>0.36454142133976702</v>
       </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
         <v>0.49218390020617703</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AC13" s="5">
         <v>0.58348211418977403</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13" s="5">
         <v>0.98893756116501796</v>
       </c>
     </row>
@@ -2814,88 +2948,88 @@
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>-398.27096981739101</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>-391.20061085546001</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="5">
         <v>-0.23209071967323</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="5">
         <v>-0.49351601858544902</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="5">
         <v>-1.9128747064065602E-2</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="P22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U22" s="5">
         <v>-1.2262485680186E-2</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="5">
         <v>-1.5767850270352001E-2</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="5">
         <v>-8.2383216200768699E-3</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y22" s="2">
+      <c r="X22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="5">
         <v>0.76857983006056096</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22" s="5">
         <v>0.87554487506558398</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22" s="5">
         <v>0.57133426932872899</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AB22" s="5">
         <v>0.317203930116222</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC22" s="5">
         <v>0.1293925954057</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="5">
         <v>0.99118163368024004</v>
       </c>
     </row>
@@ -3642,88 +3776,88 @@
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>-400.18846610144902</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>-393.11810713951797</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="5">
         <v>-0.35756929996162601</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="5">
         <v>-0.62077016192534795</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="5">
         <v>-0.16845833812448499</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U31" s="2">
+      <c r="P31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U31" s="5">
         <v>-1.24743915632836E-2</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="5">
         <v>-1.53449524419481E-2</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="5">
         <v>-9.37055324806557E-3</v>
       </c>
-      <c r="X31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y31" s="2">
+      <c r="X31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="5">
         <v>0.92671952330575103</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31" s="5">
         <v>0.91772430149310802</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="5">
         <v>0.46602094628659502</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AB31" s="5">
         <v>0.15678470230681399</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AC31" s="5">
         <v>0.41163160818718902</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31" s="5">
         <v>0.99542777662611004</v>
       </c>
     </row>
@@ -4470,88 +4604,88 @@
       <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="7">
         <v>-396.24571036648302</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="7">
         <v>-389.17535140455101</v>
       </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M40" s="5">
         <v>-0.24286486812817601</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="5">
         <v>-0.52451868508362598</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="5">
         <v>-3.11877117496706E-2</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T40" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U40" s="2">
+      <c r="P40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T40" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U40" s="5">
         <v>-1.25267169491878E-2</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="5">
         <v>-1.61378202617652E-2</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40" s="5">
         <v>-8.71459418689138E-3</v>
       </c>
-      <c r="X40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y40" s="2">
+      <c r="X40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y40" s="5">
         <v>0.96311896199235003</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="5">
         <v>0.95825932979892003</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40" s="5">
         <v>0.52025799100741799</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AB40" s="5">
         <v>0.89442600026257801</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AC40" s="5">
         <v>0.86740623336150302</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AD40" s="5">
         <v>0.99404853142328697</v>
       </c>
     </row>
@@ -5298,88 +5432,88 @@
       <c r="B49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="7">
         <v>-388.78772447623101</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="7">
         <v>-381.71736551430001</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M49" s="5">
         <v>-0.259105527653131</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="5">
         <v>-0.49469495313348999</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="5">
         <v>-4.2402145455061803E-2</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U49" s="2">
+      <c r="P49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+      <c r="R49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T49" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U49" s="5">
         <v>-1.25536209187498E-2</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49" s="5">
         <v>-1.65736989452481E-2</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W49" s="5">
         <v>-8.5678558541682007E-3</v>
       </c>
-      <c r="X49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y49" s="2">
+      <c r="X49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y49" s="5">
         <v>0.78017264547384901</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="Z49" s="5">
         <v>0.65033808842029905</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA49" s="5">
         <v>0.22728579983508801</v>
       </c>
-      <c r="AB49" s="2">
+      <c r="AB49" s="5">
         <v>0.31635202898593601</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AC49" s="5">
         <v>7.6965463038838E-2</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49" s="5">
         <v>0.99740230537954899</v>
       </c>
     </row>
@@ -6126,88 +6260,88 @@
       <c r="B58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="7">
         <v>-396.23491529047902</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="7">
         <v>-389.16455632854797</v>
       </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M58" s="2">
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M58" s="5">
         <v>-0.39198169308656999</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="5">
         <v>-0.63862299349432206</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="5">
         <v>-0.19727094442267901</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U58" s="2">
+      <c r="P58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0</v>
+      </c>
+      <c r="R58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U58" s="5">
         <v>-1.2356514112729601E-2</v>
       </c>
-      <c r="V58" s="2">
+      <c r="V58" s="5">
         <v>-1.5298623040584099E-2</v>
       </c>
-      <c r="W58" s="2">
+      <c r="W58" s="5">
         <v>-9.3495512197171692E-3</v>
       </c>
-      <c r="X58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y58" s="2">
+      <c r="X58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y58" s="5">
         <v>0.99177724500227904</v>
       </c>
-      <c r="Z58" s="2">
+      <c r="Z58" s="5">
         <v>0.98878383898111899</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="AA58" s="5">
         <v>0.99511456680053201</v>
       </c>
-      <c r="AB58" s="2">
+      <c r="AB58" s="5">
         <v>0.28036868281755101</v>
       </c>
-      <c r="AC58" s="2">
+      <c r="AC58" s="5">
         <v>0.33750171336374502</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58" s="5">
         <v>0.97289747949762595</v>
       </c>
     </row>
@@ -6954,88 +7088,88 @@
       <c r="B67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="7">
         <v>-391.65912178814602</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="7">
         <v>-384.58876282621497</v>
       </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M67" s="5">
         <v>-0.41636307525014299</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="5">
         <v>-0.66639419775115205</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="5">
         <v>-0.23484973430929201</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T67" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U67" s="2">
+      <c r="P67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>0</v>
+      </c>
+      <c r="R67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U67" s="5">
         <v>-1.21219088267422E-2</v>
       </c>
-      <c r="V67" s="2">
+      <c r="V67" s="5">
         <v>-1.50449709136408E-2</v>
       </c>
-      <c r="W67" s="2">
+      <c r="W67" s="5">
         <v>-9.2492523397138295E-3</v>
       </c>
-      <c r="X67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y67" s="2">
+      <c r="X67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y67" s="5">
         <v>0.65719733411352599</v>
       </c>
-      <c r="Z67" s="2">
+      <c r="Z67" s="5">
         <v>0.72731672813296</v>
       </c>
-      <c r="AA67" s="2">
+      <c r="AA67" s="5">
         <v>0.32766898944720302</v>
       </c>
-      <c r="AB67" s="2">
+      <c r="AB67" s="5">
         <v>0.79649357174943503</v>
       </c>
-      <c r="AC67" s="2">
+      <c r="AC67" s="5">
         <v>0.62931051744414401</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67" s="5">
         <v>0.92790436385293396</v>
       </c>
     </row>
@@ -7782,88 +7916,88 @@
       <c r="B76" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="7">
         <v>-386.20786874039197</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="7">
         <v>-379.13750977846001</v>
       </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M76" s="2">
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0</v>
+      </c>
+      <c r="J76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M76" s="5">
         <v>-0.36160505719132202</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="5">
         <v>-0.60699354300981301</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="5">
         <v>-0.15844176637257801</v>
       </c>
-      <c r="P76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>0</v>
-      </c>
-      <c r="R76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T76" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U76" s="2">
+      <c r="P76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>0</v>
+      </c>
+      <c r="R76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T76" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U76" s="5">
         <v>-1.1363876824795401E-2</v>
       </c>
-      <c r="V76" s="2">
+      <c r="V76" s="5">
         <v>-1.44795079843871E-2</v>
       </c>
-      <c r="W76" s="2">
+      <c r="W76" s="5">
         <v>-7.7415470304502297E-3</v>
       </c>
-      <c r="X76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y76" s="2">
+      <c r="X76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y76" s="5">
         <v>0.56783016634424299</v>
       </c>
-      <c r="Z76" s="2">
+      <c r="Z76" s="5">
         <v>0.49760163728294898</v>
       </c>
-      <c r="AA76" s="2">
+      <c r="AA76" s="5">
         <v>3.6583741269711201E-3</v>
       </c>
-      <c r="AB76" s="2">
+      <c r="AB76" s="5">
         <v>0.17214895576331099</v>
       </c>
-      <c r="AC76" s="2">
+      <c r="AC76" s="5">
         <v>0.297462651853725</v>
       </c>
-      <c r="AD76" s="2">
+      <c r="AD76" s="5">
         <v>0.94284570509605403</v>
       </c>
     </row>

--- a/identification_diagnosis_results_summary.xlsx
+++ b/identification_diagnosis_results_summary.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uc3m-my.sharepoint.com/personal/100461537_alumnos_uc3m_es/Documents/Series Temporales/Proyecto Final/Proyecto_Final_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2EDF5EB-2A0B-4A10-A52E-ACADFE27E319}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2B9A4E-9E68-43D2-BE3D-F30FA3EBC157}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_results" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -8559,18 +8558,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282136F3-8152-4A3C-AF94-E04EB60B6E37}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/identification_diagnosis_results_summary.xlsx
+++ b/identification_diagnosis_results_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uc3m-my.sharepoint.com/personal/100461537_alumnos_uc3m_es/Documents/Series Temporales/Proyecto Final/Proyecto_Final_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2B9A4E-9E68-43D2-BE3D-F30FA3EBC157}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72DA9E8B-EA59-4DD5-95D5-591CB3D8B011}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,13 +967,13 @@
   <dimension ref="A1:AD82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" sqref="A1:AD82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08984375" style="6" bestFit="1" customWidth="1"/>
@@ -1171,7 +1171,7 @@
         <v>-6.0564351727982703E-3</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="11">
         <v>0.49745623603445599</v>
@@ -1215,7 +1215,7 @@
         <v>2.67455928782875E-2</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="16">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>-4.7960000431443396E-3</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="16">
         <v>0.560880026675315</v>
@@ -1331,7 +1331,7 @@
         <v>-1.62172785603388E-3</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="14">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>-7.4895119242341397E-3</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y4" s="14">
         <v>0.57427296618655399</v>
@@ -1399,7 +1399,7 @@
         <v>0.860108703504608</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="16">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0.83751931611303199</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="16">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>-1.0949418288957199E-2</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="16">
         <v>0.62169593276661705</v>
@@ -1515,7 +1515,7 @@
         <v>-2.23784298947709E-3</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="16">
         <v>-4.9044740547864001E-2</v>
@@ -1527,7 +1527,7 @@
         <v>0.18458329553306799</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U6" s="16">
         <v>-1.1587504136355301E-2</v>
@@ -1539,7 +1539,7 @@
         <v>-7.3313345980665903E-3</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="16">
         <v>0.61445273298289904</v>
@@ -1583,7 +1583,7 @@
         <v>0.89592602062761895</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0.82903806498162103</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="16">
         <v>0.15596726634890301</v>
@@ -1619,7 +1619,7 @@
         <v>0.31212519853036302</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U7" s="16">
         <v>-1.20105942368075E-2</v>
@@ -1631,7 +1631,7 @@
         <v>-0.151826259536744</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y7" s="16">
         <v>0.46164233348072697</v>
@@ -1675,7 +1675,7 @@
         <v>2.2026046653970299E-2</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="16">
         <v>-6.2527107139275007E-2</v>
@@ -1687,7 +1687,7 @@
         <v>0.134442201632123</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8" s="16">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>-4.7740330008638702E-3</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y8" s="16">
         <v>0.57238594123362296</v>
@@ -1767,7 +1767,7 @@
         <v>0.81369218157870704</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" s="16">
         <v>-1.1868498654064899E-2</v>
@@ -1779,7 +1779,7 @@
         <v>0.23821178946136701</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9" s="16">
         <v>-0.40130237013113201</v>
@@ -1791,7 +1791,7 @@
         <v>0.98958749571687599</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="16">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>-1.0481065222480501E-2</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y9" s="16">
         <v>0.62344883414129004</v>
@@ -1859,7 +1859,7 @@
         <v>1.2274425113192799</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I10" s="23">
         <v>-0.78430784501028805</v>
@@ -1871,7 +1871,7 @@
         <v>0.69629899036735199</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M10" s="23">
         <v>-1.45530008442543</v>
@@ -1883,7 +1883,7 @@
         <v>1.00389847678707</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="23">
         <v>0.99997651361078599</v>
@@ -1895,7 +1895,7 @@
         <v>0.99999878973884104</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U10" s="23">
         <v>-1.1209421956107499E-2</v>
@@ -1907,7 +1907,7 @@
         <v>-1.44344827088167E-2</v>
       </c>
       <c r="X10" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y10" s="23">
         <v>0.65442011049392201</v>
@@ -1999,7 +1999,7 @@
         <v>-6.5475662959905596E-3</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y11" s="2">
         <v>0.33446327164239698</v>
@@ -2043,7 +2043,7 @@
         <v>7.75000411121331E-2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>-5.8034412547792501E-3</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y12" s="2">
         <v>0.40394093226405697</v>
@@ -2159,7 +2159,7 @@
         <v>-2.61264820925021E-3</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="5">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>-7.5083500517344904E-3</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y13" s="5">
         <v>0.43925509444073302</v>
@@ -2227,7 +2227,7 @@
         <v>0.86941643990779505</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0.87481047962506298</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>-1.34271392554055E-2</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y14" s="2">
         <v>0.44613036096130698</v>
@@ -2343,7 +2343,7 @@
         <v>6.9311539890942006E-2</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2">
         <v>-0.14984660316737899</v>
@@ -2355,7 +2355,7 @@
         <v>8.9575820481760604E-2</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U15" s="2">
         <v>-1.20029086524268E-2</v>
@@ -2367,7 +2367,7 @@
         <v>-8.0956873114644296E-3</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y15" s="2">
         <v>0.39322573889095003</v>
@@ -2411,7 +2411,7 @@
         <v>0.87554203177011203</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0.77966010946600595</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2">
         <v>-0.206534236317263</v>
@@ -2447,7 +2447,7 @@
         <v>0.210374738557805</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U16" s="2">
         <v>-1.19539368704124E-2</v>
@@ -2459,7 +2459,7 @@
         <v>-4.83920785210111E-3</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y16" s="2">
         <v>0.36840929133085698</v>
@@ -2503,7 +2503,7 @@
         <v>5.7620932469790803E-2</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2">
         <v>-0.190237979031389</v>
@@ -2515,7 +2515,7 @@
         <v>-1.33358806021374E-2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>-5.0208912477601904E-3</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y17" s="2">
         <v>0.35089888471596797</v>
@@ -2595,7 +2595,7 @@
         <v>0.80275245570640097</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I18" s="2">
         <v>-0.215143849661425</v>
@@ -2607,7 +2607,7 @@
         <v>0.113998793187205</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18" s="2">
         <v>0.212067740781369</v>
@@ -2619,7 +2619,7 @@
         <v>0.97269291074686803</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>-3.2388906099301801E-3</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y18" s="2">
         <v>0.32504199254109001</v>
@@ -2687,7 +2687,7 @@
         <v>1.2075358433062</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I19" s="2">
         <v>-0.70199637782451996</v>
@@ -2699,7 +2699,7 @@
         <v>0.61030496061495798</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="2">
         <v>-1.45150431891569</v>
@@ -2711,7 +2711,7 @@
         <v>1.1091176529789699</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2">
         <v>0.99999827263893404</v>
@@ -2723,7 +2723,7 @@
         <v>0.99999930789444003</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U19" s="2">
         <v>-1.1457437464465E-2</v>
@@ -2735,7 +2735,7 @@
         <v>-1.54459754971583E-2</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y19" s="2">
         <v>0.42159437138064898</v>
@@ -2827,7 +2827,7 @@
         <v>-6.5406077454925101E-3</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y20" s="2">
         <v>0.75219424429266002</v>
@@ -2871,7 +2871,7 @@
         <v>1.2901615363501101E-2</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>-6.1656995786680598E-3</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y21" s="2">
         <v>0.74609436222973802</v>
@@ -2987,7 +2987,7 @@
         <v>-1.9128747064065602E-2</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="5">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>-8.2383216200768699E-3</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y22" s="5">
         <v>0.76857983006056096</v>
@@ -3055,7 +3055,7 @@
         <v>0.86610856817069404</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0.79765637134176604</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>-1.0586374790279201E-2</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y23" s="2">
         <v>0.76416357695997295</v>
@@ -3171,7 +3171,7 @@
         <v>-1.8040266250828399E-2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2">
         <v>-4.3904069527430901E-2</v>
@@ -3183,7 +3183,7 @@
         <v>0.186723582135539</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U24" s="2">
         <v>-1.22820531931877E-2</v>
@@ -3195,7 +3195,7 @@
         <v>-8.5763278824075202E-3</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y24" s="2">
         <v>0.75591675251881896</v>
@@ -3239,7 +3239,7 @@
         <v>0.89052992008990595</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>0.81243804136723596</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="2">
         <v>0.182529443207887</v>
@@ -3275,7 +3275,7 @@
         <v>0.282785515843893</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U25" s="2">
         <v>-1.22763478090064E-2</v>
@@ -3287,7 +3287,7 @@
         <v>-0.141605987654217</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y25" s="2">
         <v>0.69802626032753001</v>
@@ -3331,7 +3331,7 @@
         <v>-8.3646530641567109E-3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I26" s="2">
         <v>-0.10051203423117799</v>
@@ -3343,7 +3343,7 @@
         <v>8.3585664261178E-2</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>-5.3851597909700304E-3</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y26" s="2">
         <v>0.73977587462671701</v>
@@ -3423,7 +3423,7 @@
         <v>0.79930228055898001</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2">
         <v>-7.8447049531499599E-2</v>
@@ -3435,7 +3435,7 @@
         <v>0.23154845983873601</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27" s="2">
         <v>-0.12024965031726501</v>
@@ -3447,7 +3447,7 @@
         <v>0.99998154790475202</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>-6.6175353008060501E-3</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y27" s="2">
         <v>0.74524515071616604</v>
@@ -3515,7 +3515,7 @@
         <v>1.3365167550133701</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I28" s="2">
         <v>-0.85322375846807996</v>
@@ -3527,7 +3527,7 @@
         <v>0.78781525178268796</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M28" s="2">
         <v>-1.4288848873636399</v>
@@ -3539,7 +3539,7 @@
         <v>1.6224319747714699</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="2">
         <v>0.99999229611529095</v>
@@ -3551,7 +3551,7 @@
         <v>0.99999893930064798</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U28" s="2">
         <v>-1.22447394220059E-2</v>
@@ -3563,7 +3563,7 @@
         <v>-1.61894211839347E-2</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y28" s="2">
         <v>0.76545683503840201</v>
@@ -3655,7 +3655,7 @@
         <v>-7.4511676530100001E-3</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y29" s="2">
         <v>0.86209872345180405</v>
@@ -3699,7 +3699,7 @@
         <v>-0.12959156715977599</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>-5.6561109656190897E-3</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y30" s="2">
         <v>0.93384815659476506</v>
@@ -3815,7 +3815,7 @@
         <v>-0.16845833812448499</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="5">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>-9.37055324806557E-3</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y31" s="5">
         <v>0.92671952330575103</v>
@@ -3883,7 +3883,7 @@
         <v>0.69003657467089397</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0.41489985008658697</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>-7.9928510428952607E-3</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y32" s="2">
         <v>0.963906912650486</v>
@@ -3999,7 +3999,7 @@
         <v>-0.18164747885558</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2">
         <v>7.5267495528457795E-2</v>
@@ -4011,7 +4011,7 @@
         <v>0.30243964065463502</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U33" s="2">
         <v>-1.24516218241507E-2</v>
@@ -4023,7 +4023,7 @@
         <v>-9.0329238277163295E-3</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y33" s="2">
         <v>0.97348141377742703</v>
@@ -4067,7 +4067,7 @@
         <v>0.90992651740816</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0.66377197574239999</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="2">
         <v>0.150840692264718</v>
@@ -4103,7 +4103,7 @@
         <v>0.47895359735721799</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U34" s="2">
         <v>-1.24430321015597E-2</v>
@@ -4115,7 +4115,7 @@
         <v>-1.23266299777682E-2</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y34" s="2">
         <v>0.96985735974044796</v>
@@ -4159,7 +4159,7 @@
         <v>-0.18186221351787399</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I35" s="2">
         <v>-0.168421405999056</v>
@@ -4171,7 +4171,7 @@
         <v>1.6884675702868699E-2</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>-4.7625626355462802E-3</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y35" s="2">
         <v>0.96117097299281995</v>
@@ -4251,7 +4251,7 @@
         <v>0.57720688278988497</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I36" s="2">
         <v>-0.41131609971184901</v>
@@ -4263,7 +4263,7 @@
         <v>0.247231833906771</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M36" s="2">
         <v>0.66403460462317598</v>
@@ -4275,7 +4275,7 @@
         <v>0.99999484052432697</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>-1.91516524659106E-3</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y36" s="2">
         <v>0.86612800049525795</v>
@@ -4343,7 +4343,7 @@
         <v>0.78299914235010104</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I37" s="2">
         <v>-0.59176435857144505</v>
@@ -4355,7 +4355,7 @@
         <v>0.37535666737287898</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M37" s="2">
         <v>0.87701210884762504</v>
@@ -4367,7 +4367,7 @@
         <v>1.4546386456476299</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="2">
         <v>0.215056564909268</v>
@@ -4379,7 +4379,7 @@
         <v>0.99999342129450897</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U37" s="2">
         <v>-1.23991057658808E-2</v>
@@ -4391,7 +4391,7 @@
         <v>-9.2942210852189303E-4</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y37" s="2">
         <v>0.80190465417675905</v>
@@ -4483,7 +4483,7 @@
         <v>-7.3416223167939E-3</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y38" s="2">
         <v>0.91292714059595903</v>
@@ -4527,7 +4527,7 @@
         <v>4.59472002431583E-2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>-6.5338015928675204E-3</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y39" s="2">
         <v>0.94388530977521401</v>
@@ -4643,7 +4643,7 @@
         <v>-3.11877117496706E-2</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="5">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>-8.71459418689138E-3</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y40" s="5">
         <v>0.96311896199235003</v>
@@ -4711,7 +4711,7 @@
         <v>0.85686387075156001</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>0.99260609401940703</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>-6.8829116934444504E-2</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y41" s="2">
         <v>0.89052191843262296</v>
@@ -4827,7 +4827,7 @@
         <v>2.6370206176680001E-2</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q42" s="2">
         <v>-0.16824905961943401</v>
@@ -4839,7 +4839,7 @@
         <v>2.6197110202937701E-2</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U42" s="2">
         <v>-1.2524630379702899E-2</v>
@@ -4851,7 +4851,7 @@
         <v>-9.4107136907668806E-3</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y42" s="2">
         <v>0.99060524330226096</v>
@@ -4895,7 +4895,7 @@
         <v>0.83758895264114996</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0.74433804671812898</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="2">
         <v>-0.28185029502111603</v>
@@ -4931,7 +4931,7 @@
         <v>0.241285465493072</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U43" s="2">
         <v>-1.24928250999615E-2</v>
@@ -4943,7 +4943,7 @@
         <v>-4.4821402013693699E-3</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y43" s="2">
         <v>0.97972004065529705</v>
@@ -4987,7 +4987,7 @@
         <v>-8.44013654879734E-4</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I44" s="2">
         <v>-0.21314236425682601</v>
@@ -4999,7 +4999,7 @@
         <v>-1.76334464355767E-2</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M44" s="2">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>-5.3557533291914402E-3</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y44" s="2">
         <v>0.99614420025914396</v>
@@ -5079,7 +5079,7 @@
         <v>0.75240315276501002</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I45" s="2">
         <v>-0.27901178868861598</v>
@@ -5091,7 +5091,7 @@
         <v>7.2876414997382899E-2</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M45" s="2">
         <v>0.38804887675982103</v>
@@ -5103,7 +5103,7 @@
         <v>0.94913265116303103</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -5127,7 +5127,7 @@
         <v>-3.21939156854858E-3</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y45" s="2">
         <v>0.98284534906392695</v>
@@ -5171,7 +5171,7 @@
         <v>1.08910925776543</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I46" s="2">
         <v>-0.33225690715849399</v>
@@ -5183,7 +5183,7 @@
         <v>0.59424981363594498</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M46" s="2">
         <v>0.37147448593201399</v>
@@ -5195,7 +5195,7 @@
         <v>1.2308533949610201</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="2">
         <v>6.2056792653906602E-2</v>
@@ -5207,7 +5207,7 @@
         <v>0.99999696197925103</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U46" s="2">
         <v>-1.24784548658722E-2</v>
@@ -5219,7 +5219,7 @@
         <v>-2.7115178057034901E-3</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y46" s="2">
         <v>0.98683409104034403</v>
@@ -5311,7 +5311,7 @@
         <v>-7.2707105224038499E-3</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y47" s="2">
         <v>0.88707490843665604</v>
@@ -5355,7 +5355,7 @@
         <v>5.3246202708741395E-4</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>-6.1327540429451498E-3</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y48" s="2">
         <v>0.78891637376407098</v>
@@ -5471,7 +5471,7 @@
         <v>-4.2402145455061803E-2</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="5">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         <v>-8.5678558541682007E-3</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y49" s="5">
         <v>0.78017264547384901</v>
@@ -5539,7 +5539,7 @@
         <v>0.84976582879158602</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0.71375735990995504</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>-1.5710646527729199E-2</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y50" s="2">
         <v>0.70116144063109098</v>
@@ -5655,7 +5655,7 @@
         <v>-2.1120318093598298E-2</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2">
         <v>-8.4479738323869694E-2</v>
@@ -5667,7 +5667,7 @@
         <v>0.122595678839065</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U51" s="2">
         <v>-1.2546236988625699E-2</v>
@@ -5679,7 +5679,7 @@
         <v>-8.9293613120017302E-3</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y51" s="2">
         <v>0.71637134397914004</v>
@@ -5723,7 +5723,7 @@
         <v>0.89173058680697703</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0.76886098806221403</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q52" s="2">
         <v>-0.244589059075739</v>
@@ -5759,7 +5759,7 @@
         <v>0.34902062777466802</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U52" s="2">
         <v>-1.25351354135392E-2</v>
@@ -5771,7 +5771,7 @@
         <v>-4.0792732248490903E-3</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y52" s="2">
         <v>0.68814603613544401</v>
@@ -5815,7 +5815,7 @@
         <v>-2.6047806845824299E-2</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I53" s="2">
         <v>-0.12721750001330601</v>
@@ -5827,7 +5827,7 @@
         <v>6.7829812559076094E-2</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>-5.3953637856677603E-3</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y53" s="2">
         <v>0.79233874667683202</v>
@@ -5907,7 +5907,7 @@
         <v>0.77328136017217697</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I54" s="2">
         <v>-0.236703310183532</v>
@@ -5919,7 +5919,7 @@
         <v>0.24041697243271801</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M54" s="2">
         <v>0.63393046859499302</v>
@@ -5931,7 +5931,7 @@
         <v>0.99999512041650895</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>-2.0407633333998699E-3</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y54" s="2">
         <v>0.70296169693944099</v>
@@ -5999,7 +5999,7 @@
         <v>1.2541539608671199</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I55" s="2">
         <v>4.3556227399402403E-2</v>
@@ -6011,7 +6011,7 @@
         <v>0.65493851775295697</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M55" s="2">
         <v>0.36562971671922601</v>
@@ -6023,7 +6023,7 @@
         <v>1.1667226732129901</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q55" s="2">
         <v>-0.28510366510648699</v>
@@ -6035,7 +6035,7 @@
         <v>0.99999517228000601</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U55" s="2">
         <v>-1.253783099435E-2</v>
@@ -6047,7 +6047,7 @@
         <v>-4.4946251654691604E-3</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y55" s="2">
         <v>0.67689748919349801</v>
@@ -6139,7 +6139,7 @@
         <v>-6.8295182035084598E-3</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y56" s="2">
         <v>0.95970740803868004</v>
@@ -6183,7 +6183,7 @@
         <v>-0.10435752564147099</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>-5.5892212816372302E-3</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y57" s="2">
         <v>0.99465862466456001</v>
@@ -6299,7 +6299,7 @@
         <v>-0.19727094442267901</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="5">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>-9.3495512197171692E-3</v>
       </c>
       <c r="X58" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y58" s="5">
         <v>0.99177724500227904</v>
@@ -6367,7 +6367,7 @@
         <v>0.68736915908244001</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -6391,7 +6391,7 @@
         <v>0.23128980558009299</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>-9.7912651315453497E-3</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y59" s="2">
         <v>0.991635678282209</v>
@@ -6483,7 +6483,7 @@
         <v>-0.18532984714213299</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q60" s="2">
         <v>-2.2936910390742801E-2</v>
@@ -6495,7 +6495,7 @@
         <v>0.214178096954488</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U60" s="2">
         <v>-1.2358367270501E-2</v>
@@ -6507,7 +6507,7 @@
         <v>-9.5351815246959206E-3</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y60" s="2">
         <v>0.99192061994413805</v>
@@ -6551,7 +6551,7 @@
         <v>0.89639500017701701</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -6575,7 +6575,7 @@
         <v>0.60166943430470898</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q61" s="2">
         <v>-0.28854099654315801</v>
@@ -6587,7 +6587,7 @@
         <v>0.43104124453428599</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U61" s="2">
         <v>-1.23467056400864E-2</v>
@@ -6599,7 +6599,7 @@
         <v>-4.6851265023743803E-3</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y61" s="2">
         <v>0.99050709627699796</v>
@@ -6643,7 +6643,7 @@
         <v>-0.17113181346548301</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I62" s="2">
         <v>-0.22710893186688799</v>
@@ -6655,7 +6655,7 @@
         <v>-1.8859330894603399E-2</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>-4.6662622110634402E-3</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y62" s="2">
         <v>0.97987176790724495</v>
@@ -6735,7 +6735,7 @@
         <v>0.60162742196333896</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I63" s="2">
         <v>-0.24224439235060499</v>
@@ -6747,7 +6747,7 @@
         <v>0.242258058693577</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M63" s="2">
         <v>5.0408476071644601E-2</v>
@@ -6759,7 +6759,7 @@
         <v>0.897248422261683</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q63" s="2">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>-4.1610652181870598E-3</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y63" s="2">
         <v>0.97944323659657395</v>
@@ -6827,7 +6827,7 @@
         <v>0.99555099480957399</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I64" s="2">
         <v>-0.39012859986606002</v>
@@ -6839,7 +6839,7 @@
         <v>0.40247789438870402</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M64" s="2">
         <v>-0.124754321436508</v>
@@ -6851,7 +6851,7 @@
         <v>0.84192796716366503</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q64" s="2">
         <v>0.23830173397985699</v>
@@ -6863,7 +6863,7 @@
         <v>0.99999562464816605</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U64" s="2">
         <v>-1.2306140957406699E-2</v>
@@ -6875,7 +6875,7 @@
         <v>-4.1322354496821203E-3</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y64" s="2">
         <v>0.976184332997727</v>
@@ -6967,7 +6967,7 @@
         <v>-6.8069264936725304E-3</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y65" s="2">
         <v>0.70712776908584896</v>
@@ -7011,7 +7011,7 @@
         <v>-8.8255046813532606E-2</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>-5.5465442297882601E-3</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y66" s="2">
         <v>0.66417463399844801</v>
@@ -7127,7 +7127,7 @@
         <v>-0.23484973430929201</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q67" s="5">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>-9.2492523397138295E-3</v>
       </c>
       <c r="X67" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y67" s="5">
         <v>0.65719733411352599</v>
@@ -7195,7 +7195,7 @@
         <v>0.68594207700820697</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0.14769542210846201</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q68" s="2">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>-9.9451602036300796E-3</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y68" s="2">
         <v>0.66197599845173405</v>
@@ -7311,7 +7311,7 @@
         <v>-0.17937497688457099</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="2">
         <v>-5.8346595641902699E-2</v>
@@ -7323,7 +7323,7 @@
         <v>0.14799374401620499</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U69" s="2">
         <v>-1.21510535420432E-2</v>
@@ -7335,7 +7335,7 @@
         <v>-9.2972606195125002E-3</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y69" s="2">
         <v>0.67653859240454195</v>
@@ -7379,7 +7379,7 @@
         <v>0.89100693955479604</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
@@ -7403,7 +7403,7 @@
         <v>0.60124278518571606</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q70" s="2">
         <v>-0.32722266737626499</v>
@@ -7415,7 +7415,7 @@
         <v>0.44466503532566198</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U70" s="2">
         <v>-1.2131559265401701E-2</v>
@@ -7427,7 +7427,7 @@
         <v>-4.6174839515261603E-3</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y70" s="2">
         <v>0.76697820865534405</v>
@@ -7471,7 +7471,7 @@
         <v>-0.185877611083585</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I71" s="2">
         <v>-0.27679330201758401</v>
@@ -7483,7 +7483,7 @@
         <v>-8.4257053140385604E-2</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M71" s="2">
         <v>0</v>
@@ -7519,7 +7519,7 @@
         <v>-4.0521249381817396E-3</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y71" s="2">
         <v>0.71482161527186805</v>
@@ -7563,7 +7563,7 @@
         <v>0.53837360114849997</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I72" s="2">
         <v>-0.27636356883597901</v>
@@ -7575,7 +7575,7 @@
         <v>0.19907462937717799</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M72" s="2">
         <v>-1.54345000541658E-3</v>
@@ -7587,7 +7587,7 @@
         <v>0.76676499972953205</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q72" s="2">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>-4.0351464474405801E-3</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y72" s="2">
         <v>0.71423807397088601</v>
@@ -7655,7 +7655,7 @@
         <v>0.95162251520875596</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I73" s="2">
         <v>-0.38434822819591402</v>
@@ -7667,7 +7667,7 @@
         <v>0.29758296051625499</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M73" s="2">
         <v>-0.36933479711540501</v>
@@ -7679,7 +7679,7 @@
         <v>0.72320838672769705</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q73" s="2">
         <v>0.26969299250350398</v>
@@ -7691,7 +7691,7 @@
         <v>0.99999093872225597</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U73" s="2">
         <v>-1.20219112009303E-2</v>
@@ -7703,7 +7703,7 @@
         <v>-5.1759652125552202E-3</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y73" s="2">
         <v>0.62071225698022503</v>
@@ -7795,7 +7795,7 @@
         <v>-5.5537606285844697E-3</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y74" s="2">
         <v>0.450317069018012</v>
@@ -7839,7 +7839,7 @@
         <v>-0.12804836058175401</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>-4.5640941366285603E-3</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y75" s="2">
         <v>0.452306827847481</v>
@@ -7955,7 +7955,7 @@
         <v>-0.15844176637257801</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="5">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>-7.7415470304502297E-3</v>
       </c>
       <c r="X76" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y76" s="5">
         <v>0.56783016634424299</v>
@@ -8023,7 +8023,7 @@
         <v>0.72233194917821897</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>0.33913034512822499</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q77" s="2">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         <v>-7.0392673218875601E-3</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y77" s="2">
         <v>0.58877762231701802</v>
@@ -8139,7 +8139,7 @@
         <v>-0.19569820450748299</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q78" s="2">
         <v>5.1049900318502199E-2</v>
@@ -8151,7 +8151,7 @@
         <v>0.283163128053527</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U78" s="2">
         <v>-1.13116832330994E-2</v>
@@ -8163,7 +8163,7 @@
         <v>-8.03327191972927E-3</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y78" s="2">
         <v>0.608431941186929</v>
@@ -8207,7 +8207,7 @@
         <v>0.91779631756031799</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0.62469059624892698</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q79" s="2">
         <v>0.244767754582109</v>
@@ -8243,7 +8243,7 @@
         <v>0.53317461326700399</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U79" s="2">
         <v>-1.11565608097066E-2</v>
@@ -8255,7 +8255,7 @@
         <v>-1.46343286133452E-2</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y79" s="2">
         <v>0.63778248499283097</v>
@@ -8299,7 +8299,7 @@
         <v>-0.16731196262575501</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I80" s="2">
         <v>-0.148993116865836</v>
@@ -8311,7 +8311,7 @@
         <v>4.9415055740171202E-2</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M80" s="2">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>-3.9484818037423602E-3</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y80" s="2">
         <v>0.658713724014521</v>
@@ -8391,7 +8391,7 @@
         <v>0.71102259058190698</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I81" s="2">
         <v>0.26256044854516802</v>
@@ -8403,7 +8403,7 @@
         <v>0.340632092197454</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M81" s="2">
         <v>-0.99995628521963897</v>
@@ -8415,7 +8415,7 @@
         <v>0.97776211237788602</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q81" s="2">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>-8.6960635535115696E-2</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y81" s="2">
         <v>0.43765879524227902</v>
@@ -8483,7 +8483,7 @@
         <v>1.0956647908672601</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I82" s="2">
         <v>0.10180697710615</v>
@@ -8495,7 +8495,7 @@
         <v>0.68225805364724301</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M82" s="2">
         <v>-1.22615726444057</v>
@@ -8507,7 +8507,7 @@
         <v>0.98124287039370195</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q82" s="2">
         <v>0.22616842786071301</v>
@@ -8519,7 +8519,7 @@
         <v>0.99999274622994105</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U82" s="2">
         <v>-1.1810462660103599E-2</v>
@@ -8531,7 +8531,7 @@
         <v>-0.13313717017445401</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y82" s="2">
         <v>0.48667624197135401</v>

--- a/identification_diagnosis_results_summary.xlsx
+++ b/identification_diagnosis_results_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uc3m-my.sharepoint.com/personal/100461537_alumnos_uc3m_es/Documents/Series Temporales/Proyecto Final/Proyecto_Final_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72DA9E8B-EA59-4DD5-95D5-591CB3D8B011}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="11_5B70725C424409C7A73938A573FDAE2E06B84928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F29A79F0-0937-45E5-B6F6-01F5A61097CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,44 +967,44 @@
   <dimension ref="A1:AD82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:AD82"/>
+      <selection pane="bottomRight" sqref="A1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
